--- a/ws/artifact/data/api-02.data.xlsx
+++ b/ws/artifact/data/api-02.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/ws/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4164050-750D-0742-A215-178BD16ED4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C78F0E-E95C-8E49-A5CE-F53E27E44ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="-21140" windowWidth="12800" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -36,10 +36,18 @@
     <definedName name="webcookie">'[1]#system'!$O$2:$O$8</definedName>
     <definedName name="ws">'[1]#system'!$P$2:$P$15</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>true</t>
   </si>
@@ -61,6 +69,12 @@
   </si>
   <si>
     <t>nexial.scope.iteration</t>
+  </si>
+  <si>
+    <t>// nexial.ws.logDetail</t>
+  </si>
+  <si>
+    <t>// nexial.ws.logSummary</t>
   </si>
 </sst>
 </file>
@@ -577,7 +591,7 @@
   <dimension ref="A1:AAA200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -609,12 +623,22 @@
       <c r="AAA2" s="3"/>
     </row>
     <row r="3" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="HA3" s="3"/>
       <c r="AAA3" s="3"/>
     </row>
     <row r="4" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="HA4" s="6"/>
       <c r="AAA4" s="7"/>
     </row>

--- a/ws/artifact/data/api-02.data.xlsx
+++ b/ws/artifact/data/api-02.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/ws/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C78F0E-E95C-8E49-A5CE-F53E27E44ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC68FA1-8FEA-9D43-A34C-87ADB22B4583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-21140" windowWidth="12800" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="25140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>nexial.scope.iteration</t>
   </si>
   <si>
-    <t>// nexial.ws.logDetail</t>
+    <t>nexial.ws.logDetail</t>
   </si>
   <si>
-    <t>// nexial.ws.logSummary</t>
+    <t>nexial.ws.logSummary</t>
   </si>
 </sst>
 </file>
